--- a/fba_estimate/export_template/FBA_Month_Detail_Template.xlsx
+++ b/fba_estimate/export_template/FBA_Month_Detail_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作需求\财务需求\第一版需求(正式)\需求分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>西安国芯</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -81,10 +81,6 @@
   <si>
     <t>二级业务分类</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收/付款公司</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Year</t>
@@ -133,6 +129,18 @@
   <si>
     <t>XX月份资金预估表</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款公司</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -676,109 +684,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="15" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="17" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="13"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="17">
-        <f>(L1+L3)*$M$1+L2</f>
+      <c r="M4" s="7"/>
+      <c r="N4" s="17">
+        <f>(N1+N3)*$O$1+N2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="13"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -786,93 +804,103 @@
         <v>7</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="H5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="K5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="M5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="N5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="O5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="P5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="Q5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="32">
-        <f>(L1+L3)</f>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="32">
+        <f>(N1+N3)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="32">
-        <f>L2</f>
+      <c r="N6" s="32">
+        <f>N2</f>
         <v>0</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
       <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="30">
-        <f>K6+G7-I7</f>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30">
+        <f>M6+I7-K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="30">
-        <f>L6+H7-J7</f>
+      <c r="N7" s="30">
+        <f>N6+J7-L7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="30">
-        <f>K7*$M$1+L7</f>
+      <c r="O7" s="30">
+        <f>M7*$O$1+N7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="33"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
